--- a/src/projet/planning et journal.xlsx
+++ b/src/projet/planning et journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E3D5CA-AB23-4EA2-B85B-AB3289B9E57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF65D56C-69A1-4111-8696-9E1C534EB3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Tâches</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Diagrammes uses cases</t>
   </si>
   <si>
-    <t>Diagrammes d'activité</t>
-  </si>
-  <si>
     <t>Diagramme de séquence système</t>
   </si>
   <si>
@@ -306,6 +303,12 @@
   </si>
   <si>
     <t>Tests de l'hébergment</t>
+  </si>
+  <si>
+    <t>Diagramme d'activité</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -500,32 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -533,19 +510,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -662,6 +626,51 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -673,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -685,42 +694,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -732,11 +728,48 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,6 +790,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1104,8 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1079,64 +1115,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="35">
         <v>300231</v>
       </c>
-      <c r="P3" s="35"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
       <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1146,499 +1182,509 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="36" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="36" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="36" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="36" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="15"/>
+      <c r="B9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="15"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="15"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="15"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="15"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="15"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="15"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="15"/>
-    </row>
-    <row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="15"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="15"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
+    </row>
+    <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="15"/>
-    </row>
-    <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="15"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="15"/>
+      <c r="A25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="15"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="26"/>
+    </row>
+    <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="26"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="15"/>
-    </row>
-    <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="15"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1680,145 +1726,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="26">
+      <c r="B22" s="9"/>
+      <c r="C22" s="13">
         <f>SUM(C8:C21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="16" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/projet/planning et journal.xlsx
+++ b/src/projet/planning et journal.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF65D56C-69A1-4111-8696-9E1C534EB3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BBDA61-3303-4085-B97F-9F261EBA66AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Journal de travail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>Tâches</t>
   </si>
@@ -290,18 +291,6 @@
     <t>Hébergement</t>
   </si>
   <si>
-    <t>Réalisation de la partie privé</t>
-  </si>
-  <si>
-    <t>Réalisation de la partie public</t>
-  </si>
-  <si>
-    <t>Tests fonctionnel de la partie privé</t>
-  </si>
-  <si>
-    <t>Tests fonctionnel de la partie public</t>
-  </si>
-  <si>
     <t>Tests de l'hébergment</t>
   </si>
   <si>
@@ -309,6 +298,72 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>J'ai pu commencer mon projet, créer les différents documents dont j'aurais besoin. J'ai pu faire valider mon projet par mon professeur</t>
+  </si>
+  <si>
+    <t>J'ai par la suite fait les maquettes des pages de login, principal ainsi que le contact</t>
+  </si>
+  <si>
+    <t>J'ai pu ensuite faire le diagramme d'activité et le documenter</t>
+  </si>
+  <si>
+    <t>Schneider Baptiste</t>
+  </si>
+  <si>
+    <t>Le Classique 8</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Doucmentation</t>
+  </si>
+  <si>
+    <t>Visualisation des tables (Visiteur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Réservation de tables (Administrateur)</t>
+  </si>
+  <si>
+    <t>Tests fonctionnel du login</t>
+  </si>
+  <si>
+    <t>Tests fonctionnel de réservation</t>
+  </si>
+  <si>
+    <t>Ce matin, j'ai commencé par faire et documenter mon diagramme ER</t>
+  </si>
+  <si>
+    <t>J'ai eu un problème avec word, je ne pouvais plus l'éditer. J'ai donc du redocumenter les maquettes, le diagramme d'activité, le diagramme de séquence système et le schéma ER</t>
+  </si>
+  <si>
+    <t>Schneider Baptiste 300233</t>
+  </si>
+  <si>
+    <t>Durant la matinée, j'ai commencé par faire un diagramme use-case de mon application et je l'ai documenté</t>
+  </si>
+  <si>
+    <t>En début de matinée, j'ai fait le diagramme de navigation avec les différentes maquettes et l'ai documenté</t>
+  </si>
+  <si>
+    <t>Par la suite, j'ai fait mon diagramme de séquence système et l'ai documenté</t>
+  </si>
+  <si>
+    <t>J'ai pu, par la suite, créer mon schéma relationnel et le documenter</t>
+  </si>
+  <si>
+    <t>J'ai vérifié l'orthographe des différents documents que j'ai pu produire jusque là afin de ne pas perdre de temps à la fin pour cela</t>
+  </si>
+  <si>
+    <t>J'ai eu une discussion avec mon professeur afin de vérifier ce qui avait déjà été fait. L'introduction, la planification et les maquettes ont été validées, le diagramme d'activité et le use case ont eux dû être revus pour des corrections</t>
+  </si>
+  <si>
+    <t>J'ai modifié mon diagramme d'activité ainsi que l'use case par rapport à la discussion que je venais d'avoir eue avec mon professeur</t>
   </si>
 </sst>
 </file>
@@ -400,7 +455,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,8 +485,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -678,11 +739,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -762,15 +875,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,7 +927,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1102,10 +1240,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1115,64 +1253,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
+      <c r="B3" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="43">
         <v>300231</v>
       </c>
-      <c r="P3" s="37"/>
+      <c r="P3" s="45"/>
     </row>
     <row r="4" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="B4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
       <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1182,31 +1324,31 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="38" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="38" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="38" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="38" t="s">
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -1263,13 +1405,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
@@ -1285,7 +1427,9 @@
       <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -1302,13 +1446,15 @@
       <c r="O10" s="25"/>
       <c r="P10" s="26"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>12</v>
+    <row r="11" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="D11" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
       <c r="G11" s="26"/>
@@ -1324,12 +1470,12 @@
     </row>
     <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
       <c r="D12" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
@@ -1346,14 +1492,14 @@
     </row>
     <row r="13" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="24"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="26"/>
       <c r="H13" s="24"/>
@@ -1368,12 +1514,14 @@
     </row>
     <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
       <c r="H14" s="24"/>
@@ -1393,8 +1541,12 @@
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="26"/>
       <c r="H15" s="24"/>
       <c r="I15" s="25"/>
@@ -1408,14 +1560,16 @@
     </row>
     <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" s="27"/>
@@ -1426,15 +1580,15 @@
       <c r="O16" s="25"/>
       <c r="P16" s="26"/>
     </row>
-    <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>47</v>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="D17" s="26"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="26"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
@@ -1446,16 +1600,16 @@
       <c r="O17" s="25"/>
       <c r="P17" s="26"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>13</v>
+    <row r="18" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" s="27"/>
@@ -1468,15 +1622,15 @@
     </row>
     <row r="19" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="25"/>
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
@@ -1488,14 +1642,16 @@
     </row>
     <row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="H20" s="21"/>
       <c r="I20" s="25"/>
       <c r="J20" s="27"/>
@@ -1506,9 +1662,9 @@
       <c r="O20" s="25"/>
       <c r="P20" s="26"/>
     </row>
-    <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>50</v>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -1516,7 +1672,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" s="27"/>
       <c r="K21" s="24"/>
@@ -1527,8 +1683,8 @@
       <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>14</v>
+      <c r="A22" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -1536,10 +1692,10 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="24"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="25"/>
       <c r="M22" s="26"/>
       <c r="N22" s="24"/>
@@ -1548,7 +1704,7 @@
     </row>
     <row r="23" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -1557,18 +1713,18 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="24"/>
       <c r="O23" s="25"/>
       <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -1578,11 +1734,11 @@
       <c r="G24" s="26"/>
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="21"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="22"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="24"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="21"/>
       <c r="O24" s="25"/>
       <c r="P24" s="26"/>
     </row>
@@ -1599,11 +1755,11 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="23"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="50"/>
       <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
+      <c r="O25" s="22"/>
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1628,7 +1784,7 @@
     </row>
     <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -1642,13 +1798,13 @@
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="26"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -1662,29 +1818,77 @@
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
       <c r="M28" s="26"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="26"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="33"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="23"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="35"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1714,8 +1918,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,25 +1930,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -1758,65 +1966,137 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="13"/>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>45685</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>45685</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>45691</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="13"/>
+      <c r="A12" s="12">
+        <v>45691</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>45691</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>45691</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>45691</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>45692</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>45692</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="13"/>
+      <c r="A18" s="12">
+        <v>45692</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>45692</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
@@ -1835,7 +2115,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="13">
         <f>SUM(C8:C21)</f>
-        <v>0</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1882,31 +2162,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2175,26 +2430,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2211,4 +2472,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>